--- a/Dataset/Population 2016-2023.xlsx
+++ b/Dataset/Population 2016-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FE584D-FCE4-4B50-A22B-43872701E1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719CBDBD-ECD8-4904-9C0F-FCE5EE31C3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{72EA5B32-7266-4979-8182-B32771931E6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Geographic Area</t>
   </si>
@@ -756,6 +756,9 @@
       </rPr>
       <t>Wyoming</t>
     </r>
+  </si>
+  <si>
+    <t>2023(unavailable)</t>
   </si>
 </sst>
 </file>
@@ -802,7 +805,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,7 +814,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -854,19 +881,31 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1184,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38614DF4-9BDB-41AC-B8CB-DF4714E7D3B4}">
-  <dimension ref="B1:J53"/>
+  <dimension ref="B2:J54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,1531 +1239,1531 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
         <v>2016</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="9">
         <v>2017</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E3" s="9">
         <v>2018</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F3" s="9">
         <v>2019</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="10">
         <v>2020</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H3" s="10">
         <v>2021</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I3" s="10">
         <v>2022</v>
       </c>
-      <c r="J2" s="7">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4866824</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4877989</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4891628</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4907965</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5031362</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5049846</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5074296</v>
-      </c>
-      <c r="J3" s="3">
-        <v>5074296</v>
+      <c r="J3" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>742575</v>
+        <v>4866824</v>
       </c>
       <c r="D4" s="3">
-        <v>740983</v>
+        <v>4877989</v>
       </c>
       <c r="E4" s="3">
-        <v>736624</v>
+        <v>4891628</v>
       </c>
       <c r="F4" s="3">
-        <v>733603</v>
+        <v>4907965</v>
       </c>
       <c r="G4" s="3">
-        <v>732923</v>
+        <v>5031362</v>
       </c>
       <c r="H4" s="3">
-        <v>734182</v>
+        <v>5049846</v>
       </c>
       <c r="I4" s="3">
-        <v>733583</v>
+        <v>5074296</v>
       </c>
       <c r="J4" s="3">
-        <v>733583</v>
+        <v>5074296</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
-        <v>6944767</v>
+        <v>742575</v>
       </c>
       <c r="D5" s="3">
-        <v>7048088</v>
+        <v>740983</v>
       </c>
       <c r="E5" s="3">
-        <v>7164228</v>
+        <v>736624</v>
       </c>
       <c r="F5" s="3">
-        <v>7291843</v>
+        <v>733603</v>
       </c>
       <c r="G5" s="3">
-        <v>7179943</v>
+        <v>732923</v>
       </c>
       <c r="H5" s="3">
-        <v>7264877</v>
+        <v>734182</v>
       </c>
       <c r="I5" s="3">
-        <v>7359197</v>
+        <v>733583</v>
       </c>
       <c r="J5" s="3">
-        <v>7359197</v>
+        <v>733583</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>2991815</v>
+        <v>6944767</v>
       </c>
       <c r="D6" s="3">
-        <v>3003855</v>
+        <v>7048088</v>
       </c>
       <c r="E6" s="3">
-        <v>3012161</v>
+        <v>7164228</v>
       </c>
       <c r="F6" s="3">
-        <v>3020985</v>
+        <v>7291843</v>
       </c>
       <c r="G6" s="3">
-        <v>3014195</v>
+        <v>7179943</v>
       </c>
       <c r="H6" s="3">
-        <v>3028122</v>
+        <v>7264877</v>
       </c>
       <c r="I6" s="3">
-        <v>3045637</v>
+        <v>7359197</v>
       </c>
       <c r="J6" s="3">
-        <v>3045637</v>
+        <v>7359197</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
-        <v>39149186</v>
+        <v>2991815</v>
       </c>
       <c r="D7" s="3">
-        <v>39337785</v>
+        <v>3003855</v>
       </c>
       <c r="E7" s="3">
-        <v>39437463</v>
+        <v>3012161</v>
       </c>
       <c r="F7" s="3">
-        <v>39437610</v>
+        <v>3020985</v>
       </c>
       <c r="G7" s="3">
-        <v>39501653</v>
+        <v>3014195</v>
       </c>
       <c r="H7" s="3">
-        <v>39142991</v>
+        <v>3028122</v>
       </c>
       <c r="I7" s="3">
-        <v>39029342</v>
+        <v>3045637</v>
       </c>
       <c r="J7" s="3">
-        <v>39029342</v>
+        <v>3045637</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
-        <v>5543844</v>
+        <v>39149186</v>
       </c>
       <c r="D8" s="3">
-        <v>5617421</v>
+        <v>39337785</v>
       </c>
       <c r="E8" s="3">
-        <v>5697155</v>
+        <v>39437463</v>
       </c>
       <c r="F8" s="3">
-        <v>5758486</v>
+        <v>39437610</v>
       </c>
       <c r="G8" s="3">
-        <v>5784865</v>
+        <v>39501653</v>
       </c>
       <c r="H8" s="3">
-        <v>5811297</v>
+        <v>39142991</v>
       </c>
       <c r="I8" s="3">
-        <v>5839926</v>
+        <v>39029342</v>
       </c>
       <c r="J8" s="3">
-        <v>5839926</v>
+        <v>39029342</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>3579830</v>
+        <v>5543844</v>
       </c>
       <c r="D9" s="3">
-        <v>3575324</v>
+        <v>5617421</v>
       </c>
       <c r="E9" s="3">
-        <v>3574561</v>
+        <v>5697155</v>
       </c>
       <c r="F9" s="3">
-        <v>3566022</v>
+        <v>5758486</v>
       </c>
       <c r="G9" s="3">
-        <v>3597362</v>
+        <v>5784865</v>
       </c>
       <c r="H9" s="3">
-        <v>3623355</v>
+        <v>5811297</v>
       </c>
       <c r="I9" s="3">
-        <v>3626205</v>
+        <v>5839926</v>
       </c>
       <c r="J9" s="3">
-        <v>3626205</v>
+        <v>5839926</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>949989</v>
+        <v>3579830</v>
       </c>
       <c r="D10" s="3">
-        <v>957942</v>
+        <v>3575324</v>
       </c>
       <c r="E10" s="3">
-        <v>966985</v>
+        <v>3574561</v>
       </c>
       <c r="F10" s="3">
-        <v>976668</v>
+        <v>3566022</v>
       </c>
       <c r="G10" s="3">
-        <v>992114</v>
+        <v>3597362</v>
       </c>
       <c r="H10" s="3">
-        <v>1004807</v>
+        <v>3623355</v>
       </c>
       <c r="I10" s="3">
-        <v>1018396</v>
+        <v>3626205</v>
       </c>
       <c r="J10" s="3">
-        <v>1018396</v>
+        <v>3626205</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>949989</v>
+      </c>
+      <c r="D11" s="3">
+        <v>957942</v>
+      </c>
+      <c r="E11" s="3">
+        <v>966985</v>
+      </c>
+      <c r="F11" s="3">
+        <v>976668</v>
+      </c>
+      <c r="G11" s="3">
+        <v>992114</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1004807</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1018396</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1018396</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C12" s="5">
         <v>687576</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="5">
         <v>697079</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="5">
         <v>704147</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="5">
         <v>708253</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G12" s="5">
         <v>670868</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H12" s="5">
         <v>668791</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="5">
         <v>671803</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="5">
         <v>671803</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>20627237</v>
-      </c>
-      <c r="D12" s="3">
-        <v>20977089</v>
-      </c>
-      <c r="E12" s="3">
-        <v>21254926</v>
-      </c>
-      <c r="F12" s="3">
-        <v>21492056</v>
-      </c>
-      <c r="G12" s="3">
-        <v>21589602</v>
-      </c>
-      <c r="H12" s="3">
-        <v>21828069</v>
-      </c>
-      <c r="I12" s="3">
-        <v>22244823</v>
-      </c>
-      <c r="J12" s="3">
-        <v>22244823</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
-        <v>10308442</v>
+        <v>20627237</v>
       </c>
       <c r="D13" s="3">
-        <v>10417031</v>
+        <v>20977089</v>
       </c>
       <c r="E13" s="3">
-        <v>10519389</v>
+        <v>21254926</v>
       </c>
       <c r="F13" s="3">
-        <v>10628020</v>
+        <v>21492056</v>
       </c>
       <c r="G13" s="3">
-        <v>10729828</v>
+        <v>21589602</v>
       </c>
       <c r="H13" s="3">
-        <v>10788029</v>
+        <v>21828069</v>
       </c>
       <c r="I13" s="3">
-        <v>10912876</v>
+        <v>22244823</v>
       </c>
       <c r="J13" s="3">
-        <v>10912876</v>
+        <v>22244823</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
-        <v>1428885</v>
+        <v>10308442</v>
       </c>
       <c r="D14" s="3">
-        <v>1425763</v>
+        <v>10417031</v>
       </c>
       <c r="E14" s="3">
-        <v>1423102</v>
+        <v>10519389</v>
       </c>
       <c r="F14" s="3">
-        <v>1415615</v>
+        <v>10628020</v>
       </c>
       <c r="G14" s="3">
-        <v>1451043</v>
+        <v>10729828</v>
       </c>
       <c r="H14" s="3">
-        <v>1447154</v>
+        <v>10788029</v>
       </c>
       <c r="I14" s="3">
-        <v>1440196</v>
+        <v>10912876</v>
       </c>
       <c r="J14" s="3">
-        <v>1440196</v>
+        <v>10912876</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
-        <v>1684036</v>
+        <v>1428885</v>
       </c>
       <c r="D15" s="3">
-        <v>1719745</v>
+        <v>1425763</v>
       </c>
       <c r="E15" s="3">
-        <v>1752074</v>
+        <v>1423102</v>
       </c>
       <c r="F15" s="3">
-        <v>1789060</v>
+        <v>1415615</v>
       </c>
       <c r="G15" s="3">
-        <v>1849202</v>
+        <v>1451043</v>
       </c>
       <c r="H15" s="3">
-        <v>1904314</v>
+        <v>1447154</v>
       </c>
       <c r="I15" s="3">
-        <v>1939033</v>
+        <v>1440196</v>
       </c>
       <c r="J15" s="3">
-        <v>1939033</v>
+        <v>1440196</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
-        <v>12821709</v>
+        <v>1684036</v>
       </c>
       <c r="D16" s="3">
-        <v>12779893</v>
+        <v>1719745</v>
       </c>
       <c r="E16" s="3">
-        <v>12724685</v>
+        <v>1752074</v>
       </c>
       <c r="F16" s="3">
-        <v>12667017</v>
+        <v>1789060</v>
       </c>
       <c r="G16" s="3">
-        <v>12786580</v>
+        <v>1849202</v>
       </c>
       <c r="H16" s="3">
-        <v>12686469</v>
+        <v>1904314</v>
       </c>
       <c r="I16" s="3">
-        <v>12582032</v>
+        <v>1939033</v>
       </c>
       <c r="J16" s="3">
-        <v>12582032</v>
+        <v>1939033</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3">
-        <v>6637898</v>
+        <v>12821709</v>
       </c>
       <c r="D17" s="3">
-        <v>6662068</v>
+        <v>12779893</v>
       </c>
       <c r="E17" s="3">
-        <v>6698481</v>
+        <v>12724685</v>
       </c>
       <c r="F17" s="3">
-        <v>6731010</v>
+        <v>12667017</v>
       </c>
       <c r="G17" s="3">
-        <v>6788799</v>
+        <v>12786580</v>
       </c>
       <c r="H17" s="3">
-        <v>6813532</v>
+        <v>12686469</v>
       </c>
       <c r="I17" s="3">
-        <v>6833037</v>
+        <v>12582032</v>
       </c>
       <c r="J17" s="3">
-        <v>6833037</v>
+        <v>12582032</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
-        <v>3133210</v>
+        <v>6637898</v>
       </c>
       <c r="D18" s="3">
-        <v>3143734</v>
+        <v>6662068</v>
       </c>
       <c r="E18" s="3">
-        <v>3149900</v>
+        <v>6698481</v>
       </c>
       <c r="F18" s="3">
-        <v>3159596</v>
+        <v>6731010</v>
       </c>
       <c r="G18" s="3">
-        <v>3190571</v>
+        <v>6788799</v>
       </c>
       <c r="H18" s="3">
-        <v>3197689</v>
+        <v>6813532</v>
       </c>
       <c r="I18" s="3">
-        <v>3200517</v>
+        <v>6833037</v>
       </c>
       <c r="J18" s="3">
-        <v>3200517</v>
+        <v>6833037</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>2912977</v>
+        <v>3133210</v>
       </c>
       <c r="D19" s="3">
-        <v>2910892</v>
+        <v>3143734</v>
       </c>
       <c r="E19" s="3">
-        <v>2912748</v>
+        <v>3149900</v>
       </c>
       <c r="F19" s="3">
-        <v>2912635</v>
+        <v>3159596</v>
       </c>
       <c r="G19" s="3">
-        <v>2937919</v>
+        <v>3190571</v>
       </c>
       <c r="H19" s="3">
-        <v>2937922</v>
+        <v>3197689</v>
       </c>
       <c r="I19" s="3">
-        <v>2937150</v>
+        <v>3200517</v>
       </c>
       <c r="J19" s="3">
-        <v>2937150</v>
+        <v>3200517</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3">
-        <v>4440306</v>
+        <v>2912977</v>
       </c>
       <c r="D20" s="3">
-        <v>4455590</v>
+        <v>2910892</v>
       </c>
       <c r="E20" s="3">
-        <v>4464273</v>
+        <v>2912748</v>
       </c>
       <c r="F20" s="3">
-        <v>4472345</v>
+        <v>2912635</v>
       </c>
       <c r="G20" s="3">
-        <v>4507445</v>
+        <v>2937919</v>
       </c>
       <c r="H20" s="3">
-        <v>4506589</v>
+        <v>2937922</v>
       </c>
       <c r="I20" s="3">
-        <v>4512310</v>
+        <v>2937150</v>
       </c>
       <c r="J20" s="3">
-        <v>4512310</v>
+        <v>2937150</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3">
-        <v>4681346</v>
+        <v>4440306</v>
       </c>
       <c r="D21" s="3">
-        <v>4673673</v>
+        <v>4455590</v>
       </c>
       <c r="E21" s="3">
-        <v>4664450</v>
+        <v>4464273</v>
       </c>
       <c r="F21" s="3">
-        <v>4658285</v>
+        <v>4472345</v>
       </c>
       <c r="G21" s="3">
-        <v>4651664</v>
+        <v>4507445</v>
       </c>
       <c r="H21" s="3">
-        <v>4627098</v>
+        <v>4506589</v>
       </c>
       <c r="I21" s="3">
-        <v>4590241</v>
+        <v>4512310</v>
       </c>
       <c r="J21" s="3">
-        <v>4590241</v>
+        <v>4512310</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="3">
-        <v>1332348</v>
+        <v>4681346</v>
       </c>
       <c r="D22" s="3">
-        <v>1335743</v>
+        <v>4673673</v>
       </c>
       <c r="E22" s="3">
-        <v>1340123</v>
+        <v>4664450</v>
       </c>
       <c r="F22" s="3">
-        <v>1345770</v>
+        <v>4658285</v>
       </c>
       <c r="G22" s="3">
-        <v>1363557</v>
+        <v>4651664</v>
       </c>
       <c r="H22" s="3">
-        <v>1377238</v>
+        <v>4627098</v>
       </c>
       <c r="I22" s="3">
-        <v>1385340</v>
+        <v>4590241</v>
       </c>
       <c r="J22" s="3">
-        <v>1385340</v>
+        <v>4590241</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="3">
-        <v>6007014</v>
+        <v>1332348</v>
       </c>
       <c r="D23" s="3">
-        <v>6028186</v>
+        <v>1335743</v>
       </c>
       <c r="E23" s="3">
-        <v>6042153</v>
+        <v>1340123</v>
       </c>
       <c r="F23" s="3">
-        <v>6054954</v>
+        <v>1345770</v>
       </c>
       <c r="G23" s="3">
-        <v>6173205</v>
+        <v>1363557</v>
       </c>
       <c r="H23" s="3">
-        <v>6174610</v>
+        <v>1377238</v>
       </c>
       <c r="I23" s="3">
-        <v>6164660</v>
+        <v>1385340</v>
       </c>
       <c r="J23" s="3">
-        <v>6164660</v>
+        <v>1385340</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="3">
-        <v>6827280</v>
+        <v>6007014</v>
       </c>
       <c r="D24" s="3">
-        <v>6863560</v>
+        <v>6028186</v>
       </c>
       <c r="E24" s="3">
-        <v>6885720</v>
+        <v>6042153</v>
       </c>
       <c r="F24" s="3">
-        <v>6894883</v>
+        <v>6054954</v>
       </c>
       <c r="G24" s="3">
-        <v>6995729</v>
+        <v>6173205</v>
       </c>
       <c r="H24" s="3">
-        <v>6989690</v>
+        <v>6174610</v>
       </c>
       <c r="I24" s="3">
-        <v>6981974</v>
+        <v>6164660</v>
       </c>
       <c r="J24" s="3">
-        <v>6981974</v>
+        <v>6164660</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3">
-        <v>9954117</v>
+        <v>6827280</v>
       </c>
       <c r="D25" s="3">
-        <v>9976752</v>
+        <v>6863560</v>
       </c>
       <c r="E25" s="3">
-        <v>9987286</v>
+        <v>6885720</v>
       </c>
       <c r="F25" s="3">
-        <v>9984795</v>
+        <v>6894883</v>
       </c>
       <c r="G25" s="3">
-        <v>10069577</v>
+        <v>6995729</v>
       </c>
       <c r="H25" s="3">
-        <v>10037504</v>
+        <v>6989690</v>
       </c>
       <c r="I25" s="3">
-        <v>10034113</v>
+        <v>6981974</v>
       </c>
       <c r="J25" s="3">
-        <v>10034113</v>
+        <v>6981974</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="3">
-        <v>5525360</v>
+        <v>9954117</v>
       </c>
       <c r="D26" s="3">
-        <v>5569283</v>
+        <v>9976752</v>
       </c>
       <c r="E26" s="3">
-        <v>5608762</v>
+        <v>9987286</v>
       </c>
       <c r="F26" s="3">
-        <v>5640053</v>
+        <v>9984795</v>
       </c>
       <c r="G26" s="3">
-        <v>5709852</v>
+        <v>10069577</v>
       </c>
       <c r="H26" s="3">
-        <v>5711471</v>
+        <v>10037504</v>
       </c>
       <c r="I26" s="3">
-        <v>5717184</v>
+        <v>10034113</v>
       </c>
       <c r="J26" s="3">
-        <v>5717184</v>
+        <v>10034113</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3">
-        <v>2990595</v>
+        <v>5525360</v>
       </c>
       <c r="D27" s="3">
-        <v>2990674</v>
+        <v>5569283</v>
       </c>
       <c r="E27" s="3">
-        <v>2982879</v>
+        <v>5608762</v>
       </c>
       <c r="F27" s="3">
-        <v>2978227</v>
+        <v>5640053</v>
       </c>
       <c r="G27" s="3">
-        <v>2958141</v>
+        <v>5709852</v>
       </c>
       <c r="H27" s="3">
-        <v>2949586</v>
+        <v>5711471</v>
       </c>
       <c r="I27" s="3">
-        <v>2940057</v>
+        <v>5717184</v>
       </c>
       <c r="J27" s="3">
-        <v>2940057</v>
+        <v>5717184</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3">
-        <v>6091384</v>
+        <v>2990595</v>
       </c>
       <c r="D28" s="3">
-        <v>6111382</v>
+        <v>2990674</v>
       </c>
       <c r="E28" s="3">
-        <v>6125986</v>
+        <v>2982879</v>
       </c>
       <c r="F28" s="3">
-        <v>6140475</v>
+        <v>2978227</v>
       </c>
       <c r="G28" s="3">
-        <v>6153998</v>
+        <v>2958141</v>
       </c>
       <c r="H28" s="3">
-        <v>6169823</v>
+        <v>2949586</v>
       </c>
       <c r="I28" s="3">
-        <v>6177957</v>
+        <v>2940057</v>
       </c>
       <c r="J28" s="3">
-        <v>6177957</v>
+        <v>2940057</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3">
-        <v>1042137</v>
+        <v>6091384</v>
       </c>
       <c r="D29" s="3">
-        <v>1053862</v>
+        <v>6111382</v>
       </c>
       <c r="E29" s="3">
-        <v>1061818</v>
+        <v>6125986</v>
       </c>
       <c r="F29" s="3">
-        <v>1070123</v>
+        <v>6140475</v>
       </c>
       <c r="G29" s="3">
-        <v>1087075</v>
+        <v>6153998</v>
       </c>
       <c r="H29" s="3">
-        <v>1106227</v>
+        <v>6169823</v>
       </c>
       <c r="I29" s="3">
-        <v>1122867</v>
+        <v>6177957</v>
       </c>
       <c r="J29" s="3">
-        <v>1122867</v>
+        <v>6177957</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3">
-        <v>1906483</v>
+        <v>1042137</v>
       </c>
       <c r="D30" s="3">
-        <v>1916998</v>
+        <v>1053862</v>
       </c>
       <c r="E30" s="3">
-        <v>1925512</v>
+        <v>1061818</v>
       </c>
       <c r="F30" s="3">
-        <v>1932571</v>
+        <v>1070123</v>
       </c>
       <c r="G30" s="3">
-        <v>1962642</v>
+        <v>1087075</v>
       </c>
       <c r="H30" s="3">
-        <v>1963554</v>
+        <v>1106227</v>
       </c>
       <c r="I30" s="3">
-        <v>1967923</v>
+        <v>1122867</v>
       </c>
       <c r="J30" s="3">
-        <v>1967923</v>
+        <v>1122867</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3">
-        <v>2919555</v>
+        <v>1906483</v>
       </c>
       <c r="D31" s="3">
-        <v>2972097</v>
+        <v>1916998</v>
       </c>
       <c r="E31" s="3">
-        <v>3030725</v>
+        <v>1925512</v>
       </c>
       <c r="F31" s="3">
-        <v>3090771</v>
+        <v>1932571</v>
       </c>
       <c r="G31" s="3">
-        <v>3115648</v>
+        <v>1962642</v>
       </c>
       <c r="H31" s="3">
-        <v>3146402</v>
+        <v>1963554</v>
       </c>
       <c r="I31" s="3">
-        <v>3177772</v>
+        <v>1967923</v>
       </c>
       <c r="J31" s="3">
-        <v>3177772</v>
+        <v>1967923</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3">
-        <v>1343694</v>
+        <v>2919555</v>
       </c>
       <c r="D32" s="3">
-        <v>1350395</v>
+        <v>2972097</v>
       </c>
       <c r="E32" s="3">
-        <v>1355064</v>
+        <v>3030725</v>
       </c>
       <c r="F32" s="3">
-        <v>1360783</v>
+        <v>3090771</v>
       </c>
       <c r="G32" s="3">
-        <v>1378587</v>
+        <v>3115648</v>
       </c>
       <c r="H32" s="3">
-        <v>1387505</v>
+        <v>3146402</v>
       </c>
       <c r="I32" s="3">
-        <v>1395231</v>
+        <v>3177772</v>
       </c>
       <c r="J32" s="3">
-        <v>1395231</v>
+        <v>3177772</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
-        <v>8873584</v>
+        <v>1343694</v>
       </c>
       <c r="D33" s="3">
-        <v>8888147</v>
+        <v>1350395</v>
       </c>
       <c r="E33" s="3">
-        <v>8891730</v>
+        <v>1355064</v>
       </c>
       <c r="F33" s="3">
-        <v>8891258</v>
+        <v>1360783</v>
       </c>
       <c r="G33" s="3">
-        <v>9271689</v>
+        <v>1378587</v>
       </c>
       <c r="H33" s="3">
-        <v>9267961</v>
+        <v>1387505</v>
       </c>
       <c r="I33" s="3">
-        <v>9261699</v>
+        <v>1395231</v>
       </c>
       <c r="J33" s="3">
-        <v>9261699</v>
+        <v>1395231</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3">
-        <v>2092555</v>
+        <v>8873584</v>
       </c>
       <c r="D34" s="3">
-        <v>2092844</v>
+        <v>8888147</v>
       </c>
       <c r="E34" s="3">
-        <v>2093754</v>
+        <v>8891730</v>
       </c>
       <c r="F34" s="3">
-        <v>2099634</v>
+        <v>8891258</v>
       </c>
       <c r="G34" s="3">
-        <v>2118390</v>
+        <v>9271689</v>
       </c>
       <c r="H34" s="3">
-        <v>2116677</v>
+        <v>9267961</v>
       </c>
       <c r="I34" s="3">
-        <v>2113344</v>
+        <v>9261699</v>
       </c>
       <c r="J34" s="3">
-        <v>2113344</v>
+        <v>9261699</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3">
-        <v>19636391</v>
+        <v>2092555</v>
       </c>
       <c r="D35" s="3">
-        <v>19593849</v>
+        <v>2092844</v>
       </c>
       <c r="E35" s="3">
-        <v>19544098</v>
+        <v>2093754</v>
       </c>
       <c r="F35" s="3">
-        <v>19463131</v>
+        <v>2099634</v>
       </c>
       <c r="G35" s="3">
-        <v>20108296</v>
+        <v>2118390</v>
       </c>
       <c r="H35" s="3">
-        <v>19857492</v>
+        <v>2116677</v>
       </c>
       <c r="I35" s="3">
-        <v>19677151</v>
+        <v>2113344</v>
       </c>
       <c r="J35" s="3">
-        <v>19677151</v>
+        <v>2113344</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3">
-        <v>10161802</v>
+        <v>19636391</v>
       </c>
       <c r="D36" s="3">
-        <v>10275758</v>
+        <v>19593849</v>
       </c>
       <c r="E36" s="3">
-        <v>10391358</v>
+        <v>19544098</v>
       </c>
       <c r="F36" s="3">
-        <v>10501384</v>
+        <v>19463131</v>
       </c>
       <c r="G36" s="3">
-        <v>10449445</v>
+        <v>20108296</v>
       </c>
       <c r="H36" s="3">
-        <v>10565885</v>
+        <v>19857492</v>
       </c>
       <c r="I36" s="3">
-        <v>10698973</v>
+        <v>19677151</v>
       </c>
       <c r="J36" s="3">
-        <v>10698973</v>
+        <v>19677151</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3">
-        <v>756114</v>
+        <v>10161802</v>
       </c>
       <c r="D37" s="3">
-        <v>756755</v>
+        <v>10275758</v>
       </c>
       <c r="E37" s="3">
-        <v>760062</v>
+        <v>10391358</v>
       </c>
       <c r="F37" s="3">
-        <v>763724</v>
+        <v>10501384</v>
       </c>
       <c r="G37" s="3">
-        <v>779518</v>
+        <v>10449445</v>
       </c>
       <c r="H37" s="3">
-        <v>777934</v>
+        <v>10565885</v>
       </c>
       <c r="I37" s="3">
-        <v>779261</v>
+        <v>10698973</v>
       </c>
       <c r="J37" s="3">
-        <v>779261</v>
+        <v>10698973</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3">
-        <v>11640060</v>
+        <v>756114</v>
       </c>
       <c r="D38" s="3">
-        <v>11665706</v>
+        <v>756755</v>
       </c>
       <c r="E38" s="3">
-        <v>11680892</v>
+        <v>760062</v>
       </c>
       <c r="F38" s="3">
-        <v>11696507</v>
+        <v>763724</v>
       </c>
       <c r="G38" s="3">
-        <v>11797517</v>
+        <v>779518</v>
       </c>
       <c r="H38" s="3">
-        <v>11764342</v>
+        <v>777934</v>
       </c>
       <c r="I38" s="3">
-        <v>11756058</v>
+        <v>779261</v>
       </c>
       <c r="J38" s="3">
-        <v>11756058</v>
+        <v>779261</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3">
-        <v>3928143</v>
+        <v>11640060</v>
       </c>
       <c r="D39" s="3">
-        <v>3933602</v>
+        <v>11665706</v>
       </c>
       <c r="E39" s="3">
-        <v>3943488</v>
+        <v>11680892</v>
       </c>
       <c r="F39" s="3">
-        <v>3960676</v>
+        <v>11696507</v>
       </c>
       <c r="G39" s="3">
-        <v>3964912</v>
+        <v>11797517</v>
       </c>
       <c r="H39" s="3">
-        <v>3991225</v>
+        <v>11764342</v>
       </c>
       <c r="I39" s="3">
-        <v>4019800</v>
+        <v>11756058</v>
       </c>
       <c r="J39" s="3">
-        <v>4019800</v>
+        <v>11756058</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3">
-        <v>4093271</v>
+        <v>3928143</v>
       </c>
       <c r="D40" s="3">
-        <v>4147294</v>
+        <v>3933602</v>
       </c>
       <c r="E40" s="3">
-        <v>4183538</v>
+        <v>3943488</v>
       </c>
       <c r="F40" s="3">
-        <v>4216116</v>
+        <v>3960676</v>
       </c>
       <c r="G40" s="3">
-        <v>4244795</v>
+        <v>3964912</v>
       </c>
       <c r="H40" s="3">
-        <v>4256301</v>
+        <v>3991225</v>
       </c>
       <c r="I40" s="3">
-        <v>4240137</v>
+        <v>4019800</v>
       </c>
       <c r="J40" s="3">
-        <v>4240137</v>
+        <v>4019800</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="3">
-        <v>12788468</v>
+        <v>4093271</v>
       </c>
       <c r="D41" s="3">
-        <v>12794679</v>
+        <v>4147294</v>
       </c>
       <c r="E41" s="3">
-        <v>12809107</v>
+        <v>4183538</v>
       </c>
       <c r="F41" s="3">
-        <v>12798883</v>
+        <v>4216116</v>
       </c>
       <c r="G41" s="3">
-        <v>12994440</v>
+        <v>4244795</v>
       </c>
       <c r="H41" s="3">
-        <v>13012059</v>
+        <v>4256301</v>
       </c>
       <c r="I41" s="3">
-        <v>12972008</v>
+        <v>4240137</v>
       </c>
       <c r="J41" s="3">
-        <v>12972008</v>
+        <v>4240137</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3">
-        <v>1057816</v>
+        <v>12788468</v>
       </c>
       <c r="D42" s="3">
-        <v>1056554</v>
+        <v>12794679</v>
       </c>
       <c r="E42" s="3">
-        <v>1059338</v>
+        <v>12809107</v>
       </c>
       <c r="F42" s="3">
-        <v>1058158</v>
+        <v>12798883</v>
       </c>
       <c r="G42" s="3">
-        <v>1096345</v>
+        <v>12994440</v>
       </c>
       <c r="H42" s="3">
-        <v>1096985</v>
+        <v>13012059</v>
       </c>
       <c r="I42" s="3">
-        <v>1093734</v>
+        <v>12972008</v>
       </c>
       <c r="J42" s="3">
-        <v>1093734</v>
+        <v>12972008</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="3">
-        <v>4963031</v>
+        <v>1057816</v>
       </c>
       <c r="D43" s="3">
-        <v>5027102</v>
+        <v>1056554</v>
       </c>
       <c r="E43" s="3">
-        <v>5091702</v>
+        <v>1059338</v>
       </c>
       <c r="F43" s="3">
-        <v>5157702</v>
+        <v>1058158</v>
       </c>
       <c r="G43" s="3">
-        <v>5131848</v>
+        <v>1096345</v>
       </c>
       <c r="H43" s="3">
-        <v>5193266</v>
+        <v>1096985</v>
       </c>
       <c r="I43" s="3">
-        <v>5282634</v>
+        <v>1093734</v>
       </c>
       <c r="J43" s="3">
-        <v>5282634</v>
+        <v>1093734</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="3">
-        <v>863693</v>
+        <v>4963031</v>
       </c>
       <c r="D44" s="3">
-        <v>873732</v>
+        <v>5027102</v>
       </c>
       <c r="E44" s="3">
-        <v>879386</v>
+        <v>5091702</v>
       </c>
       <c r="F44" s="3">
-        <v>887127</v>
+        <v>5157702</v>
       </c>
       <c r="G44" s="3">
-        <v>887799</v>
+        <v>5131848</v>
       </c>
       <c r="H44" s="3">
-        <v>896164</v>
+        <v>5193266</v>
       </c>
       <c r="I44" s="3">
-        <v>909824</v>
+        <v>5282634</v>
       </c>
       <c r="J44" s="3">
-        <v>909824</v>
+        <v>5282634</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="3">
-        <v>6651277</v>
+        <v>863693</v>
       </c>
       <c r="D45" s="3">
-        <v>6714748</v>
+        <v>873732</v>
       </c>
       <c r="E45" s="3">
-        <v>6778180</v>
+        <v>879386</v>
       </c>
       <c r="F45" s="3">
-        <v>6830325</v>
+        <v>887127</v>
       </c>
       <c r="G45" s="3">
-        <v>6925619</v>
+        <v>887799</v>
       </c>
       <c r="H45" s="3">
-        <v>6968351</v>
+        <v>896164</v>
       </c>
       <c r="I45" s="3">
-        <v>7051339</v>
+        <v>909824</v>
       </c>
       <c r="J45" s="3">
-        <v>7051339</v>
+        <v>909824</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3">
-        <v>27914064</v>
+        <v>6651277</v>
       </c>
       <c r="D46" s="3">
-        <v>28291024</v>
+        <v>6714748</v>
       </c>
       <c r="E46" s="3">
-        <v>28624564</v>
+        <v>6778180</v>
       </c>
       <c r="F46" s="3">
-        <v>28986794</v>
+        <v>6830325</v>
       </c>
       <c r="G46" s="3">
-        <v>29232474</v>
+        <v>6925619</v>
       </c>
       <c r="H46" s="3">
-        <v>29558864</v>
+        <v>6968351</v>
       </c>
       <c r="I46" s="3">
-        <v>30029572</v>
+        <v>7051339</v>
       </c>
       <c r="J46" s="3">
-        <v>30029572</v>
+        <v>7051339</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="3">
-        <v>3044241</v>
+        <v>27914064</v>
       </c>
       <c r="D47" s="3">
-        <v>3103540</v>
+        <v>28291024</v>
       </c>
       <c r="E47" s="3">
-        <v>3155153</v>
+        <v>28624564</v>
       </c>
       <c r="F47" s="3">
-        <v>3203383</v>
+        <v>28986794</v>
       </c>
       <c r="G47" s="3">
-        <v>3283785</v>
+        <v>29232474</v>
       </c>
       <c r="H47" s="3">
-        <v>3339113</v>
+        <v>29558864</v>
       </c>
       <c r="I47" s="3">
-        <v>3380800</v>
+        <v>30029572</v>
       </c>
       <c r="J47" s="3">
-        <v>3380800</v>
+        <v>30029572</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="3">
-        <v>624366</v>
+        <v>3044241</v>
       </c>
       <c r="D48" s="3">
-        <v>625132</v>
+        <v>3103540</v>
       </c>
       <c r="E48" s="3">
-        <v>624802</v>
+        <v>3155153</v>
       </c>
       <c r="F48" s="3">
-        <v>624046</v>
+        <v>3203383</v>
       </c>
       <c r="G48" s="3">
-        <v>642893</v>
+        <v>3283785</v>
       </c>
       <c r="H48" s="3">
-        <v>646972</v>
+        <v>3339113</v>
       </c>
       <c r="I48" s="3">
-        <v>647064</v>
+        <v>3380800</v>
       </c>
       <c r="J48" s="3">
-        <v>647064</v>
+        <v>3380800</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3">
-        <v>8417651</v>
+        <v>624366</v>
       </c>
       <c r="D49" s="3">
-        <v>8471011</v>
+        <v>625132</v>
       </c>
       <c r="E49" s="3">
-        <v>8510920</v>
+        <v>624802</v>
       </c>
       <c r="F49" s="3">
-        <v>8556642</v>
+        <v>624046</v>
       </c>
       <c r="G49" s="3">
-        <v>8636471</v>
+        <v>642893</v>
       </c>
       <c r="H49" s="3">
-        <v>8657365</v>
+        <v>646972</v>
       </c>
       <c r="I49" s="3">
-        <v>8683619</v>
+        <v>647064</v>
       </c>
       <c r="J49" s="3">
-        <v>8683619</v>
+        <v>647064</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="3">
-        <v>7299961</v>
+        <v>8417651</v>
       </c>
       <c r="D50" s="3">
-        <v>7427951</v>
+        <v>8471011</v>
       </c>
       <c r="E50" s="3">
-        <v>7526793</v>
+        <v>8510920</v>
       </c>
       <c r="F50" s="3">
-        <v>7614024</v>
+        <v>8556642</v>
       </c>
       <c r="G50" s="3">
-        <v>7724031</v>
+        <v>8636471</v>
       </c>
       <c r="H50" s="3">
-        <v>7740745</v>
+        <v>8657365</v>
       </c>
       <c r="I50" s="3">
-        <v>7785786</v>
+        <v>8683619</v>
       </c>
       <c r="J50" s="3">
-        <v>7785786</v>
+        <v>8683619</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="3">
-        <v>1832435</v>
+        <v>7299961</v>
       </c>
       <c r="D51" s="3">
-        <v>1818683</v>
+        <v>7427951</v>
       </c>
       <c r="E51" s="3">
-        <v>1805953</v>
+        <v>7526793</v>
       </c>
       <c r="F51" s="3">
-        <v>1795263</v>
+        <v>7614024</v>
       </c>
       <c r="G51" s="3">
-        <v>1791420</v>
+        <v>7724031</v>
       </c>
       <c r="H51" s="3">
-        <v>1785526</v>
+        <v>7740745</v>
       </c>
       <c r="I51" s="3">
-        <v>1775156</v>
+        <v>7785786</v>
       </c>
       <c r="J51" s="3">
-        <v>1775156</v>
+        <v>7785786</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="3">
-        <v>5775170</v>
+        <v>1832435</v>
       </c>
       <c r="D52" s="3">
-        <v>5793147</v>
+        <v>1818683</v>
       </c>
       <c r="E52" s="3">
-        <v>5809319</v>
+        <v>1805953</v>
       </c>
       <c r="F52" s="3">
-        <v>5824581</v>
+        <v>1795263</v>
       </c>
       <c r="G52" s="3">
-        <v>5896271</v>
+        <v>1791420</v>
       </c>
       <c r="H52" s="3">
-        <v>5880101</v>
+        <v>1785526</v>
       </c>
       <c r="I52" s="3">
-        <v>5892539</v>
+        <v>1775156</v>
       </c>
       <c r="J52" s="3">
-        <v>5892539</v>
+        <v>1775156</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3">
+        <v>5775170</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5793147</v>
+      </c>
+      <c r="E53" s="3">
+        <v>5809319</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5824581</v>
+      </c>
+      <c r="G53" s="3">
+        <v>5896271</v>
+      </c>
+      <c r="H53" s="3">
+        <v>5880101</v>
+      </c>
+      <c r="I53" s="3">
+        <v>5892539</v>
+      </c>
+      <c r="J53" s="3">
+        <v>5892539</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C54" s="5">
         <v>585243</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="5">
         <v>579994</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="5">
         <v>579054</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F54" s="5">
         <v>580116</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G54" s="5">
         <v>577605</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H54" s="5">
         <v>579483</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I54" s="5">
         <v>581381</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J54" s="5">
         <v>581381</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
